--- a/biology/Botanique/Terminalia_tetraphylla/Terminalia_tetraphylla.xlsx
+++ b/biology/Botanique/Terminalia_tetraphylla/Terminalia_tetraphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia tetraphylla (syn. : Buchenavia tetraphylla (Aubl.) R.A.Howard), est une espèce d'arbre néotropical appartenant à la famille des Combretaceae.
-Il est connu au Suriname sous les noms de Geroberhout, Gindya-udu, Fukadi, Fokadi, Kanbii, Katoelima, Katurimja, Komanti kwatii, Matakki, Parakusinja, Toekadi, Toekoeli[4].
-On l'appelle Comeyo au Venezuela[5], et Tanimbuca, Imbiridiba au Brésil[6].
+Il est connu au Suriname sous les noms de Geroberhout, Gindya-udu, Fukadi, Fokadi, Kanbii, Katoelima, Katurimja, Komanti kwatii, Matakki, Parakusinja, Toekadi, Toekoeli.
+On l'appelle Comeyo au Venezuela, et Tanimbuca, Imbiridiba au Brésil.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia tetraphylla est un arbre haut de 2-25(–50) m, à feuillage semi-persistant (brièvement caduc).
 Les grands individus développent des contreforts.
@@ -532,7 +546,7 @@
 Les fleurs sont longues de 2,5 à 5 mm.
 L'hypanthe inférieur est long de 1,5-31 mm, densément couvert de poils roux, devenant un peu clairsemé sur le brusque rétrécissement du col fin sur 0,8-1,2 mm de long.
 L'hypanthium supérieur est sub-glabre, et mesure 1-2 x 2,5-3,5 mm.
-Le fruit mesure (1,2-)1,5-3,5 x (0,7-)1-2,2 cm, est glabre (rarement un peu pubescent), de forme ovale à obovale (en vue latérale), plus ou moins cylindrique (parfois orné de 5 petites crêtes longitudinales), à base arrondie (rarement brièvement pseudostipitée), à l'apex aigu ou arrondi et souvent apiculé (mais sans bec)[5],[4].
+Le fruit mesure (1,2-)1,5-3,5 x (0,7-)1-2,2 cm, est glabre (rarement un peu pubescent), de forme ovale à obovale (en vue latérale), plus ou moins cylindrique (parfois orné de 5 petites crêtes longitudinales), à base arrondie (rarement brièvement pseudostipitée), à l'apex aigu ou arrondi et souvent apiculé (mais sans bec),.
 </t>
         </is>
       </c>
@@ -561,10 +575,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia tetraphylla est l'espèce la plus vastement distribuée du genre.
-On la rencontre depuis Cuba et le sud du Costa Rica jusqu'à la Bolivie (autour de 17°S) et le Brésil (autour de 22,4°S : Rio de Janeiro)[4], en passant par le Panama, les Grandes et Petites Antilles, la Colombie, le Venezuela, Trinidad, le Suriname, la Guyane, et le Pérou[5].
+On la rencontre depuis Cuba et le sud du Costa Rica jusqu'à la Bolivie (autour de 17°S) et le Brésil (autour de 22,4°S : Rio de Janeiro), en passant par le Panama, les Grandes et Petites Antilles, la Colombie, le Venezuela, Trinidad, le Suriname, la Guyane, et le Pérou.
 </t>
         </is>
       </c>
@@ -593,10 +609,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terminalia tetraphylla est un arbre poussant dans généralement dans les Guyanes, au sein des forêts ripicoles, inondées ou non, jusqu'à 500 m d'altitude[4], et au Venezuela, dans les forêts sempervirentes de plaine ou de montagne, inondées et de terre ferme, les formations arbustives du sommet des reliefs, autour de 50–1 600 m d'altitude[5].
-Dans les Guyanes, il fleurit et fructifie plus ou moins tout au long de l'année, avec un pic de floraison surtout de mars à septembre, et un pic de fructification plutôt de juillet à mars[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terminalia tetraphylla est un arbre poussant dans généralement dans les Guyanes, au sein des forêts ripicoles, inondées ou non, jusqu'à 500 m d'altitude, et au Venezuela, dans les forêts sempervirentes de plaine ou de montagne, inondées et de terre ferme, les formations arbustives du sommet des reliefs, autour de 50–1 600 m d'altitude.
+Dans les Guyanes, il fleurit et fructifie plus ou moins tout au long de l'année, avec un pic de floraison surtout de mars à septembre, et un pic de fructification plutôt de juillet à mars.
 </t>
         </is>
       </c>
@@ -625,16 +643,18 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On utilise localement Terminalia tetraphylla comme bois d'œuvre, qui est durable, de couleur jaune, avec un grain lisse et serré[4].
-Les extraits de feuille de Terminalia tetraphylla présentent des activités antimicrobiennes, hémolytiques[7],
-antioxydantes[8],
-antifongique sur Candida albicans[9],[10],
-et antibactérienne sur Staphylococcus aureus (par inhibition de la réplication de l'ADN)[11].
-On a aussi réalisé des études sur ses propriétés activités anti-inflammatoires, anti-hyperglycémiques, et sur sa toxicité[6].
-On a identifié 33 composés dans l'huile essentielle de Terminalia tetraphylla du Pernambouc dont du trans-cadina-1,4-diène (17,51%), de l'α-muurolol (14,02%), de l'α-cadinol (en) (10,90%), et du trans-caryophyllène (9,43%). Cette huiles s'est avérée plus complexe et plus riche que celle provenant du Ceará[12],
-et présente des propriétés antimicrobiennes, cytotoxiques et antifongique sur Candida albicans[13].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On utilise localement Terminalia tetraphylla comme bois d'œuvre, qui est durable, de couleur jaune, avec un grain lisse et serré.
+Les extraits de feuille de Terminalia tetraphylla présentent des activités antimicrobiennes, hémolytiques,
+antioxydantes,
+antifongique sur Candida albicans
+et antibactérienne sur Staphylococcus aureus (par inhibition de la réplication de l'ADN).
+On a aussi réalisé des études sur ses propriétés activités anti-inflammatoires, anti-hyperglycémiques, et sur sa toxicité.
+On a identifié 33 composés dans l'huile essentielle de Terminalia tetraphylla du Pernambouc dont du trans-cadina-1,4-diène (17,51%), de l'α-muurolol (14,02%), de l'α-cadinol (en) (10,90%), et du trans-caryophyllène (9,43%). Cette huiles s'est avérée plus complexe et plus riche que celle provenant du Ceará,
+et présente des propriétés antimicrobiennes, cytotoxiques et antifongique sur Candida albicans.
 </t>
         </is>
       </c>
@@ -663,9 +683,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[14] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « CORDIA (tetraphylla)  foliis verticillatis ; fructu olivarformi. (Tabula 88.)
 Arbor trunco ſeptem-pedali, in ſummitate ramoſo, ramis &amp; ramulis nodoſis, undiquè ſparſis. Folia ad nodos quaterna, verticillata, ovata, ball anguſtiora, brevi petiolata, glabra, integerrima. Flores ſeſſiles, corymboſi ; pedunculis longis, axillaribus.
 CAL. Perianthium monophyllum, turbinatum, quinquedentatum.
